--- a/1.Server/2.Midware/_excel/class.xlsx
+++ b/1.Server/2.Midware/_excel/class.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26175" windowHeight="13065" tabRatio="506"/>
+    <workbookView windowWidth="26100" windowHeight="13065" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181">
   <si>
     <t>Class</t>
   </si>
@@ -379,16 +379,386 @@
   <si>
     <t>游戏内在线总时长(服务器使用，做一些成就和统计)</t>
   </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>玩家记录id(服务器使用)</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>玩家邮件列表</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>maxmailid</t>
+  </si>
+  <si>
+    <t>最大邮件id</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>玩家道具列表</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>guid</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>玩家英雄列表</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>玩家皮肤列表</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>achieve</t>
+  </si>
+  <si>
+    <t>成就列表</t>
+  </si>
+  <si>
+    <t>Achieve</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>任务列表</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>signin</t>
+  </si>
+  <si>
+    <t>签到信息</t>
+  </si>
+  <si>
+    <t>SignIn</t>
+  </si>
+  <si>
+    <t>服务器记录id</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>服务器记录值</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32</t>
+    </r>
+  </si>
+  <si>
+    <t>模型id</t>
+  </si>
+  <si>
+    <t>skinid</t>
+  </si>
+  <si>
+    <t>穿戴皮肤id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>有效时间</t>
+  </si>
+  <si>
+    <t>usecount</t>
+  </si>
+  <si>
+    <t>使用场次</t>
+  </si>
+  <si>
+    <t>skillid</t>
+  </si>
+  <si>
+    <t>默认的召唤师技能</t>
+  </si>
+  <si>
+    <t>皮肤配置id</t>
+  </si>
+  <si>
+    <t>皮肤到期时间, 0永久</t>
+  </si>
+  <si>
+    <t>道具guid</t>
+  </si>
+  <si>
+    <t>道具配置id</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>道具数量</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>道具到期时间, 0永久</t>
+  </si>
+  <si>
+    <t>sevenday</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+  </si>
+  <si>
+    <t>7天签到数据(累计的天数)</t>
+  </si>
+  <si>
+    <t>sevenreward</t>
+  </si>
+  <si>
+    <t>7天领奖数据(按位累计)</t>
+  </si>
+  <si>
+    <t>邮件id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>邮件类型</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>邮件标识服务器使用( 1 全局邮件 2 个人邮件)</t>
+  </si>
+  <si>
+    <t>邮件状态(未读/已读/已经领取)</t>
+  </si>
+  <si>
+    <t>sendid</t>
+  </si>
+  <si>
+    <t>邮件发送者id</t>
+  </si>
+  <si>
+    <t>sendname</t>
+  </si>
+  <si>
+    <t>邮件发送者名字</t>
+  </si>
+  <si>
+    <t>sendtime</t>
+  </si>
+  <si>
+    <t>邮件发送时间</t>
+  </si>
+  <si>
+    <t>validtime</t>
+  </si>
+  <si>
+    <t>邮件有效时间</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>邮件标题</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>邮件内容</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>邮件奖励(字串形式, 需要解析)</t>
+  </si>
+  <si>
+    <t>configid</t>
+  </si>
+  <si>
+    <t>邮件配置表id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chieve</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t>成就id</t>
+  </si>
+  <si>
+    <t>成就完成数值</t>
+  </si>
+  <si>
+    <t>成就数值</t>
+  </si>
+  <si>
+    <t>成就完成情况</t>
+  </si>
+  <si>
+    <t>任务id</t>
+  </si>
+  <si>
+    <t>任务完成数值</t>
+  </si>
+  <si>
+    <t>任务数值</t>
+  </si>
+  <si>
+    <t>任务完成情况</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>称号id</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>商品id</t>
+  </si>
+  <si>
+    <t>已经购买的道具数量</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -424,6 +794,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -437,8 +814,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,89 +914,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -573,8 +935,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,7 +989,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,37 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +1067,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,19 +1133,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +1163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,60 +1176,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,24 +1206,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,6 +1264,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -902,17 +1307,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -921,10 +1315,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,137 +1327,137 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,7 +1479,40 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1505,38 +1932,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="48.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="11" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="11" style="7" customWidth="1"/>
-    <col min="13" max="16" width="9" style="7" customWidth="1"/>
-    <col min="17" max="17" width="11" style="7" customWidth="1"/>
-    <col min="18" max="18" width="9" style="7" customWidth="1"/>
-    <col min="19" max="19" width="8.375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="16.25" style="7" customWidth="1"/>
-    <col min="21" max="21" width="19.625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="16" style="7" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="21.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="48.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11" style="14" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="11" style="14" customWidth="1"/>
+    <col min="13" max="16" width="9" style="14" customWidth="1"/>
+    <col min="17" max="17" width="11" style="14" customWidth="1"/>
+    <col min="18" max="18" width="9" style="14" customWidth="1"/>
+    <col min="19" max="19" width="8.375" style="14" customWidth="1"/>
+    <col min="20" max="20" width="16.25" style="14" customWidth="1"/>
+    <col min="21" max="21" width="19.625" style="14" customWidth="1"/>
+    <col min="22" max="22" width="16" style="14" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
@@ -2429,6 +2856,2329 @@
         <v>0</v>
       </c>
       <c r="R21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+      <c r="A22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+      <c r="A23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+      <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0</v>
+      </c>
+      <c r="S24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+      <c r="A25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="7" customFormat="1" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7">
+        <v>1</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+      <c r="A27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <v>0</v>
+      </c>
+      <c r="S27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+      <c r="A28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <v>0</v>
+      </c>
+      <c r="S28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="6" customFormat="1" ht="17" customHeight="1" spans="1:19">
+      <c r="A29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6">
+        <v>0</v>
+      </c>
+      <c r="S29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+      <c r="A30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="8" customFormat="1" spans="1:19">
+      <c r="A31" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0</v>
+      </c>
+      <c r="P31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="8" customFormat="1" spans="1:19">
+      <c r="A32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0</v>
+      </c>
+      <c r="P32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="9" customFormat="1" spans="1:20">
+      <c r="A33" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9">
+        <v>1</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="9" customFormat="1" spans="1:20">
+      <c r="A34" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9">
+        <v>1</v>
+      </c>
+      <c r="K34" s="9">
+        <v>1</v>
+      </c>
+      <c r="L34" s="9">
+        <v>1</v>
+      </c>
+      <c r="M34" s="9">
+        <v>1</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="9" customFormat="1" spans="1:20">
+      <c r="A35" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9">
+        <v>1</v>
+      </c>
+      <c r="K35" s="9">
+        <v>1</v>
+      </c>
+      <c r="L35" s="9">
+        <v>1</v>
+      </c>
+      <c r="M35" s="9">
+        <v>1</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>0</v>
+      </c>
+      <c r="R35" s="9">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="9" customFormat="1" spans="1:20">
+      <c r="A36" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9">
+        <v>1</v>
+      </c>
+      <c r="K36" s="9">
+        <v>1</v>
+      </c>
+      <c r="L36" s="9">
+        <v>1</v>
+      </c>
+      <c r="M36" s="9">
+        <v>1</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <v>0</v>
+      </c>
+      <c r="S36" s="9">
+        <v>0</v>
+      </c>
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="9" customFormat="1" spans="1:20">
+      <c r="A37" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9">
+        <v>1</v>
+      </c>
+      <c r="K37" s="9">
+        <v>1</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1</v>
+      </c>
+      <c r="M37" s="9">
+        <v>1</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="10" customFormat="1" spans="1:19">
+      <c r="A38" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10">
+        <v>1</v>
+      </c>
+      <c r="K38" s="10">
+        <v>1</v>
+      </c>
+      <c r="L38" s="10">
+        <v>1</v>
+      </c>
+      <c r="M38" s="10">
+        <v>1</v>
+      </c>
+      <c r="N38" s="10">
+        <v>0</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>0</v>
+      </c>
+      <c r="R38" s="10">
+        <v>0</v>
+      </c>
+      <c r="S38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="10" customFormat="1" spans="1:19">
+      <c r="A39" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10">
+        <v>1</v>
+      </c>
+      <c r="K39" s="10">
+        <v>1</v>
+      </c>
+      <c r="L39" s="10">
+        <v>1</v>
+      </c>
+      <c r="M39" s="10">
+        <v>1</v>
+      </c>
+      <c r="N39" s="10">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10">
+        <v>0</v>
+      </c>
+      <c r="P39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>0</v>
+      </c>
+      <c r="R39" s="10">
+        <v>0</v>
+      </c>
+      <c r="S39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="9" customFormat="1" spans="1:19">
+      <c r="A40" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9">
+        <v>1</v>
+      </c>
+      <c r="K40" s="9">
+        <v>1</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1</v>
+      </c>
+      <c r="M40" s="9">
+        <v>1</v>
+      </c>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0</v>
+      </c>
+      <c r="P40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>0</v>
+      </c>
+      <c r="R40" s="9">
+        <v>0</v>
+      </c>
+      <c r="S40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="9" customFormat="1" spans="1:19">
+      <c r="A41" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9">
+        <v>1</v>
+      </c>
+      <c r="K41" s="9">
+        <v>1</v>
+      </c>
+      <c r="L41" s="9">
+        <v>1</v>
+      </c>
+      <c r="M41" s="9">
+        <v>1</v>
+      </c>
+      <c r="N41" s="9">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>0</v>
+      </c>
+      <c r="P41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>0</v>
+      </c>
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="9" customFormat="1" spans="1:19">
+      <c r="A42" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9">
+        <v>1</v>
+      </c>
+      <c r="K42" s="9">
+        <v>1</v>
+      </c>
+      <c r="L42" s="9">
+        <v>1</v>
+      </c>
+      <c r="M42" s="9">
+        <v>1</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>0</v>
+      </c>
+      <c r="R42" s="9">
+        <v>0</v>
+      </c>
+      <c r="S42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="9" customFormat="1" spans="1:19">
+      <c r="A43" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9">
+        <v>1</v>
+      </c>
+      <c r="K43" s="9">
+        <v>1</v>
+      </c>
+      <c r="L43" s="9">
+        <v>1</v>
+      </c>
+      <c r="M43" s="9">
+        <v>1</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
+        <v>0</v>
+      </c>
+      <c r="P43" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>0</v>
+      </c>
+      <c r="R43" s="9">
+        <v>0</v>
+      </c>
+      <c r="S43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="11" customFormat="1" spans="1:19">
+      <c r="A44" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11">
+        <v>1</v>
+      </c>
+      <c r="K44" s="11">
+        <v>1</v>
+      </c>
+      <c r="L44" s="11">
+        <v>1</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>0</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="11" customFormat="1" spans="1:19">
+      <c r="A45" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11">
+        <v>1</v>
+      </c>
+      <c r="K45" s="11">
+        <v>1</v>
+      </c>
+      <c r="L45" s="11">
+        <v>1</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11">
+        <v>0</v>
+      </c>
+      <c r="P45" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>0</v>
+      </c>
+      <c r="R45" s="11">
+        <v>0</v>
+      </c>
+      <c r="S45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="12" customFormat="1" spans="1:19">
+      <c r="A46" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+      <c r="K46" s="12">
+        <v>1</v>
+      </c>
+      <c r="L46" s="12">
+        <v>1</v>
+      </c>
+      <c r="M46" s="12">
+        <v>0</v>
+      </c>
+      <c r="N46" s="12">
+        <v>0</v>
+      </c>
+      <c r="O46" s="12">
+        <v>0</v>
+      </c>
+      <c r="P46" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>0</v>
+      </c>
+      <c r="R46" s="12">
+        <v>0</v>
+      </c>
+      <c r="S46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="12" customFormat="1" spans="1:19">
+      <c r="A47" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12">
+        <v>0</v>
+      </c>
+      <c r="K47" s="12">
+        <v>1</v>
+      </c>
+      <c r="L47" s="12">
+        <v>1</v>
+      </c>
+      <c r="M47" s="12">
+        <v>0</v>
+      </c>
+      <c r="N47" s="12">
+        <v>0</v>
+      </c>
+      <c r="O47" s="12">
+        <v>0</v>
+      </c>
+      <c r="P47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>0</v>
+      </c>
+      <c r="R47" s="12">
+        <v>0</v>
+      </c>
+      <c r="S47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="12" customFormat="1" spans="1:19">
+      <c r="A48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12">
+        <v>0</v>
+      </c>
+      <c r="M48" s="12">
+        <v>0</v>
+      </c>
+      <c r="N48" s="12">
+        <v>0</v>
+      </c>
+      <c r="O48" s="12">
+        <v>0</v>
+      </c>
+      <c r="P48" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>0</v>
+      </c>
+      <c r="R48" s="12">
+        <v>0</v>
+      </c>
+      <c r="S48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="12" customFormat="1" spans="1:19">
+      <c r="A49" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12">
+        <v>0</v>
+      </c>
+      <c r="K49" s="12">
+        <v>1</v>
+      </c>
+      <c r="L49" s="12">
+        <v>1</v>
+      </c>
+      <c r="M49" s="12">
+        <v>0</v>
+      </c>
+      <c r="N49" s="12">
+        <v>0</v>
+      </c>
+      <c r="O49" s="12">
+        <v>0</v>
+      </c>
+      <c r="P49" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>0</v>
+      </c>
+      <c r="R49" s="12">
+        <v>0</v>
+      </c>
+      <c r="S49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="12" customFormat="1" spans="1:19">
+      <c r="A50" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12">
+        <v>0</v>
+      </c>
+      <c r="K50" s="12">
+        <v>1</v>
+      </c>
+      <c r="L50" s="12">
+        <v>1</v>
+      </c>
+      <c r="M50" s="12">
+        <v>0</v>
+      </c>
+      <c r="N50" s="12">
+        <v>0</v>
+      </c>
+      <c r="O50" s="12">
+        <v>0</v>
+      </c>
+      <c r="P50" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>0</v>
+      </c>
+      <c r="R50" s="12">
+        <v>0</v>
+      </c>
+      <c r="S50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="12" customFormat="1" spans="1:19">
+      <c r="A51" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
+      <c r="K51" s="12">
+        <v>1</v>
+      </c>
+      <c r="L51" s="12">
+        <v>1</v>
+      </c>
+      <c r="M51" s="12">
+        <v>0</v>
+      </c>
+      <c r="N51" s="12">
+        <v>0</v>
+      </c>
+      <c r="O51" s="12">
+        <v>0</v>
+      </c>
+      <c r="P51" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>0</v>
+      </c>
+      <c r="R51" s="12">
+        <v>0</v>
+      </c>
+      <c r="S51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" s="12" customFormat="1" spans="1:19">
+      <c r="A52" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
+      <c r="K52" s="12">
+        <v>1</v>
+      </c>
+      <c r="L52" s="12">
+        <v>1</v>
+      </c>
+      <c r="M52" s="12">
+        <v>0</v>
+      </c>
+      <c r="N52" s="12">
+        <v>0</v>
+      </c>
+      <c r="O52" s="12">
+        <v>0</v>
+      </c>
+      <c r="P52" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>0</v>
+      </c>
+      <c r="R52" s="12">
+        <v>0</v>
+      </c>
+      <c r="S52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="12" customFormat="1" spans="1:19">
+      <c r="A53" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
+      <c r="K53" s="12">
+        <v>1</v>
+      </c>
+      <c r="L53" s="12">
+        <v>1</v>
+      </c>
+      <c r="M53" s="12">
+        <v>0</v>
+      </c>
+      <c r="N53" s="12">
+        <v>0</v>
+      </c>
+      <c r="O53" s="12">
+        <v>0</v>
+      </c>
+      <c r="P53" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>0</v>
+      </c>
+      <c r="R53" s="12">
+        <v>0</v>
+      </c>
+      <c r="S53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" s="12" customFormat="1" spans="1:19">
+      <c r="A54" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
+      <c r="K54" s="12">
+        <v>1</v>
+      </c>
+      <c r="L54" s="12">
+        <v>1</v>
+      </c>
+      <c r="M54" s="12">
+        <v>0</v>
+      </c>
+      <c r="N54" s="12">
+        <v>0</v>
+      </c>
+      <c r="O54" s="12">
+        <v>0</v>
+      </c>
+      <c r="P54" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="12">
+        <v>0</v>
+      </c>
+      <c r="R54" s="12">
+        <v>0</v>
+      </c>
+      <c r="S54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" s="12" customFormat="1" spans="1:19">
+      <c r="A55" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12">
+        <v>0</v>
+      </c>
+      <c r="K55" s="12">
+        <v>1</v>
+      </c>
+      <c r="L55" s="12">
+        <v>1</v>
+      </c>
+      <c r="M55" s="12">
+        <v>0</v>
+      </c>
+      <c r="N55" s="12">
+        <v>0</v>
+      </c>
+      <c r="O55" s="12">
+        <v>0</v>
+      </c>
+      <c r="P55" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="12">
+        <v>0</v>
+      </c>
+      <c r="R55" s="12">
+        <v>0</v>
+      </c>
+      <c r="S55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="12" customFormat="1" spans="1:19">
+      <c r="A56" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+      <c r="K56" s="12">
+        <v>1</v>
+      </c>
+      <c r="L56" s="12">
+        <v>1</v>
+      </c>
+      <c r="M56" s="12">
+        <v>0</v>
+      </c>
+      <c r="N56" s="12">
+        <v>0</v>
+      </c>
+      <c r="O56" s="12">
+        <v>0</v>
+      </c>
+      <c r="P56" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="12">
+        <v>0</v>
+      </c>
+      <c r="R56" s="12">
+        <v>0</v>
+      </c>
+      <c r="S56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="12" customFormat="1" spans="1:19">
+      <c r="A57" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12">
+        <v>0</v>
+      </c>
+      <c r="K57" s="12">
+        <v>1</v>
+      </c>
+      <c r="L57" s="12">
+        <v>1</v>
+      </c>
+      <c r="M57" s="12">
+        <v>0</v>
+      </c>
+      <c r="N57" s="12">
+        <v>0</v>
+      </c>
+      <c r="O57" s="12">
+        <v>0</v>
+      </c>
+      <c r="P57" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>0</v>
+      </c>
+      <c r="R57" s="12">
+        <v>0</v>
+      </c>
+      <c r="S57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="12" customFormat="1" spans="1:19">
+      <c r="A58" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+      <c r="K58" s="12">
+        <v>1</v>
+      </c>
+      <c r="L58" s="12">
+        <v>1</v>
+      </c>
+      <c r="M58" s="12">
+        <v>0</v>
+      </c>
+      <c r="N58" s="12">
+        <v>0</v>
+      </c>
+      <c r="O58" s="12">
+        <v>0</v>
+      </c>
+      <c r="P58" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="12">
+        <v>0</v>
+      </c>
+      <c r="R58" s="12">
+        <v>0</v>
+      </c>
+      <c r="S58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="11" customFormat="1" spans="1:19">
+      <c r="A59" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11">
+        <v>1</v>
+      </c>
+      <c r="K59" s="11">
+        <v>1</v>
+      </c>
+      <c r="L59" s="11">
+        <v>1</v>
+      </c>
+      <c r="M59" s="11">
+        <v>1</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
+      </c>
+      <c r="O59" s="11">
+        <v>0</v>
+      </c>
+      <c r="P59" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>0</v>
+      </c>
+      <c r="R59" s="11">
+        <v>0</v>
+      </c>
+      <c r="S59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" s="11" customFormat="1" spans="1:19">
+      <c r="A60" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11">
+        <v>1</v>
+      </c>
+      <c r="K60" s="11">
+        <v>1</v>
+      </c>
+      <c r="L60" s="11">
+        <v>1</v>
+      </c>
+      <c r="M60" s="11">
+        <v>1</v>
+      </c>
+      <c r="N60" s="11">
+        <v>0</v>
+      </c>
+      <c r="O60" s="11">
+        <v>0</v>
+      </c>
+      <c r="P60" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>0</v>
+      </c>
+      <c r="R60" s="11">
+        <v>0</v>
+      </c>
+      <c r="S60" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" s="11" customFormat="1" spans="1:19">
+      <c r="A61" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11">
+        <v>1</v>
+      </c>
+      <c r="K61" s="11">
+        <v>1</v>
+      </c>
+      <c r="L61" s="11">
+        <v>1</v>
+      </c>
+      <c r="M61" s="11">
+        <v>1</v>
+      </c>
+      <c r="N61" s="11">
+        <v>0</v>
+      </c>
+      <c r="O61" s="11">
+        <v>0</v>
+      </c>
+      <c r="P61" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>0</v>
+      </c>
+      <c r="R61" s="11">
+        <v>0</v>
+      </c>
+      <c r="S61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" s="11" customFormat="1" spans="1:19">
+      <c r="A62" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11">
+        <v>1</v>
+      </c>
+      <c r="K62" s="11">
+        <v>1</v>
+      </c>
+      <c r="L62" s="11">
+        <v>1</v>
+      </c>
+      <c r="M62" s="11">
+        <v>1</v>
+      </c>
+      <c r="N62" s="11">
+        <v>0</v>
+      </c>
+      <c r="O62" s="11">
+        <v>0</v>
+      </c>
+      <c r="P62" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>0</v>
+      </c>
+      <c r="R62" s="11">
+        <v>0</v>
+      </c>
+      <c r="S62" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" s="11" customFormat="1" spans="1:19">
+      <c r="A63" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11">
+        <v>1</v>
+      </c>
+      <c r="K63" s="11">
+        <v>1</v>
+      </c>
+      <c r="L63" s="11">
+        <v>1</v>
+      </c>
+      <c r="M63" s="11">
+        <v>1</v>
+      </c>
+      <c r="N63" s="11">
+        <v>0</v>
+      </c>
+      <c r="O63" s="11">
+        <v>0</v>
+      </c>
+      <c r="P63" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="11">
+        <v>0</v>
+      </c>
+      <c r="R63" s="11">
+        <v>0</v>
+      </c>
+      <c r="S63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" s="11" customFormat="1" spans="1:19">
+      <c r="A64" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11">
+        <v>1</v>
+      </c>
+      <c r="K64" s="11">
+        <v>1</v>
+      </c>
+      <c r="L64" s="11">
+        <v>1</v>
+      </c>
+      <c r="M64" s="11">
+        <v>1</v>
+      </c>
+      <c r="N64" s="11">
+        <v>0</v>
+      </c>
+      <c r="O64" s="11">
+        <v>0</v>
+      </c>
+      <c r="P64" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>0</v>
+      </c>
+      <c r="R64" s="11">
+        <v>0</v>
+      </c>
+      <c r="S64" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" s="11" customFormat="1" spans="1:19">
+      <c r="A65" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11">
+        <v>1</v>
+      </c>
+      <c r="K65" s="11">
+        <v>1</v>
+      </c>
+      <c r="L65" s="11">
+        <v>1</v>
+      </c>
+      <c r="M65" s="11">
+        <v>1</v>
+      </c>
+      <c r="N65" s="11">
+        <v>0</v>
+      </c>
+      <c r="O65" s="11">
+        <v>0</v>
+      </c>
+      <c r="P65" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="11">
+        <v>0</v>
+      </c>
+      <c r="R65" s="11">
+        <v>0</v>
+      </c>
+      <c r="S65" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" s="13" customFormat="1" spans="1:19">
+      <c r="A66" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13">
+        <v>1</v>
+      </c>
+      <c r="K66" s="13">
+        <v>1</v>
+      </c>
+      <c r="L66" s="13">
+        <v>1</v>
+      </c>
+      <c r="M66" s="13">
+        <v>0</v>
+      </c>
+      <c r="N66" s="13">
+        <v>0</v>
+      </c>
+      <c r="O66" s="13">
+        <v>0</v>
+      </c>
+      <c r="P66" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="13">
+        <v>0</v>
+      </c>
+      <c r="R66" s="13">
+        <v>0</v>
+      </c>
+      <c r="S66" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" s="13" customFormat="1" spans="1:19">
+      <c r="A67" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13">
+        <v>1</v>
+      </c>
+      <c r="K67" s="13">
+        <v>1</v>
+      </c>
+      <c r="L67" s="13">
+        <v>1</v>
+      </c>
+      <c r="M67" s="13">
+        <v>0</v>
+      </c>
+      <c r="N67" s="13">
+        <v>0</v>
+      </c>
+      <c r="O67" s="13">
+        <v>0</v>
+      </c>
+      <c r="P67" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>0</v>
+      </c>
+      <c r="R67" s="13">
+        <v>0</v>
+      </c>
+      <c r="S67" s="13">
         <v>0</v>
       </c>
     </row>
